--- a/exel/report_2021.xlsx
+++ b/exel/report_2021.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>NETTO</t>
+          <t>STOIM</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -453,66 +453,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Индия</t>
+          <t>Беларусь</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6514326</v>
+        <v>12714626</v>
       </c>
       <c r="C2" t="n">
-        <v>32.6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Узбекистан</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5993319</v>
+        <v>3135493</v>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Филиппины</t>
+          <t>Казахстан</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2129744</v>
+        <v>2714462</v>
       </c>
       <c r="C4" t="n">
-        <v>10.7</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Шри-Ланка</t>
+          <t>Бельгия</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2063194</v>
+        <v>2585262</v>
       </c>
       <c r="C5" t="n">
-        <v>10.3</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Вьетнам</t>
+          <t>Литва</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>738200</v>
+        <v>1835361</v>
       </c>
       <c r="C6" t="n">
-        <v>3.7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="7">
@@ -522,150 +522,150 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>648077</v>
+        <v>1447713</v>
       </c>
       <c r="C7" t="n">
-        <v>3.2</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Таиланд</t>
+          <t>Латвия</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>436000</v>
+        <v>937488</v>
       </c>
       <c r="C8" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Индонезия</t>
+          <t>Украина</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>350138</v>
+        <v>815036</v>
       </c>
       <c r="C9" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Нидерланды</t>
+          <t>Киргизия</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>285424</v>
+        <v>498046</v>
       </c>
       <c r="C10" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Южная Африка</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>216570</v>
+        <v>271627</v>
       </c>
       <c r="C11" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Италия</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>163589</v>
+        <v>177928</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Малайзия</t>
+          <t>Азербайджан</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89000</v>
+        <v>151743</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Армения</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>86210</v>
+        <v>134726</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Япония</t>
+          <t>Монголия</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>57809</v>
+        <v>134025</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Финляндия</t>
+          <t>Сербия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42995</v>
+        <v>86650</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Бельгия</t>
+          <t>Коста-рика</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38014</v>
+        <v>74910</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Беларусь</t>
+          <t>Нидерланды</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>35614</v>
+        <v>69357</v>
       </c>
       <c r="C18" t="n">
         <v>0.2</v>
@@ -674,11 +674,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Австрия</t>
+          <t>Мексика</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35000</v>
+        <v>61698</v>
       </c>
       <c r="C19" t="n">
         <v>0.2</v>
@@ -687,145 +687,405 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Италия</t>
+          <t>Болгария</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16400</v>
+        <v>61672</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Киргизия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15776</v>
+        <v>60693</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Франция</t>
+          <t>Гватемала</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8611</v>
+        <v>51954</v>
       </c>
       <c r="C22" t="n">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Эстония</t>
+          <t>Нигерия</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3651</v>
+        <v>33653</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Перу</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2914</v>
+        <v>24552</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Дания</t>
+          <t>Эль-Сальвадор</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1925</v>
+        <v>19131</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Швейцария</t>
+          <t>Северная Македония</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1496</v>
+        <v>15963</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Турция</t>
+          <t>Боливия, многонациональное государство</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1200</v>
+        <v>13840</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Мексика</t>
+          <t>Гонконг</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1000</v>
+        <v>12931</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>другие</t>
+          <t>Аргентина</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2582</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
+        <v>12841</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>Корея, Республика</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>11569</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Гондурас</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>11542</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Чехия</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>10431</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Молдова, Республика</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>8420</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Чили</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>8372</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Финляндия</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>7933</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Венгрия</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>7694</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Колумбия</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>6589</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>США</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>6348</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Тайвань (Китай)</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>6029</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Израиль</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>5831</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Египет</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>5155</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Румыния</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>4615</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Доминиканская Республика</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>4589</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Доминика</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2906</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Малайзия</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1887</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Вьетнам</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1822</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Эстония</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1538</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Эквадор</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1482</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>другие</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2712</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
           <t>Итого</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>19978780</v>
-      </c>
-      <c r="C30" t="n">
+      <c r="B50" t="n">
+        <v>28270845</v>
+      </c>
+      <c r="C50" t="n">
         <v>100</v>
       </c>
     </row>
